--- a/biology/Botanique/Parc_paysager_régional_des_îles_du_Dniepr/Parc_paysager_régional_des_îles_du_Dniepr.xlsx
+++ b/biology/Botanique/Parc_paysager_régional_des_îles_du_Dniepr/Parc_paysager_régional_des_îles_du_Dniepr.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_paysager_r%C3%A9gional_des_%C3%AEles_du_Dniepr</t>
+          <t>Parc_paysager_régional_des_îles_du_Dniepr</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc paysager des îles du Dniepr (en ukrainien : Регіональний ландшафтний парк «Дніпровські острови») est un parc régional situé sur les îles de Kiev, en Ukraine.
-Atypique, le parc se compose de plusieurs parties : parc Mouromets-Lopoukhovate réserve naturelle[2] parfois déconnectées entre-elles.
+Atypique, le parc se compose de plusieurs parties : parc Mouromets-Lopoukhovate réserve naturelle parfois déconnectées entre-elles.
 			Mouromets-Lopoukhovate,
-			île Joukiv réserve naturelle[3]
-			îles Kozatchi et Olgin réserve naturelle[4],
-			Boborvnia réserve naturelle[5].
+			île Joukiv réserve naturelle
+			îles Kozatchi et Olgin réserve naturelle,
+			Boborvnia réserve naturelle.
 </t>
         </is>
       </c>
